--- a/Project/红外测距.xlsx
+++ b/Project/红外测距.xlsx
@@ -116,31 +116,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3000</c:v>
+                  <c:v>180</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2800</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2700</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2600</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2500</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2200</c:v>
+                  <c:v>136</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2100</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2050</c:v>
+                  <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1950</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -152,31 +152,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>105</c:v>
+                  <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>115</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>120</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>125</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>135</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>140</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>145</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>150</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -191,11 +191,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="98532736"/>
-        <c:axId val="98529280"/>
+        <c:axId val="132962176"/>
+        <c:axId val="132963712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98532736"/>
+        <c:axId val="132962176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -205,12 +205,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98529280"/>
+        <c:crossAx val="132963712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="98529280"/>
+        <c:axId val="132963712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -221,7 +221,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="98532736"/>
+        <c:crossAx val="132962176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -568,30 +568,30 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B9" sqref="A1:B9"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1">
-        <v>3000</v>
+        <v>180</v>
       </c>
       <c r="B1">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>2800</v>
+        <v>170</v>
       </c>
       <c r="B2">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>2700</v>
+        <v>160</v>
       </c>
       <c r="B3">
         <v>118</v>
@@ -599,50 +599,50 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4">
-        <v>2600</v>
+        <v>150</v>
       </c>
       <c r="B4">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5">
-        <v>2500</v>
+        <v>141</v>
       </c>
       <c r="B5">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>2200</v>
+        <v>136</v>
       </c>
       <c r="B6">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>2100</v>
+        <v>130</v>
       </c>
       <c r="B7">
-        <v>140</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>2050</v>
+        <v>120</v>
       </c>
       <c r="B8">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>1950</v>
+        <v>111</v>
       </c>
       <c r="B9">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
